--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cfh-Sell.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cfh-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6506192240945879</v>
+        <v>1.573304666666667</v>
       </c>
       <c r="H2">
-        <v>0.6506192240945879</v>
+        <v>4.719914</v>
       </c>
       <c r="I2">
-        <v>0.01014995215273501</v>
+        <v>0.02227938362376841</v>
       </c>
       <c r="J2">
-        <v>0.01014995215273501</v>
+        <v>0.0222793836237684</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.46872113201998</v>
+        <v>74.89537566666667</v>
       </c>
       <c r="N2">
-        <v>7.46872113201998</v>
+        <v>224.686127</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.6660623326691122</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.6660623326691123</v>
       </c>
       <c r="Q2">
-        <v>4.859293547893692</v>
+        <v>117.8332440481198</v>
       </c>
       <c r="R2">
-        <v>4.859293547893692</v>
+        <v>1060.499196433078</v>
       </c>
       <c r="S2">
-        <v>0.01014995215273501</v>
+        <v>0.0148394582268772</v>
       </c>
       <c r="T2">
-        <v>0.01014995215273501</v>
+        <v>0.0148394582268772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.6557577815758</v>
+        <v>1.573304666666667</v>
       </c>
       <c r="H3">
-        <v>35.6557577815758</v>
+        <v>4.719914</v>
       </c>
       <c r="I3">
-        <v>0.5562458378879521</v>
+        <v>0.02227938362376841</v>
       </c>
       <c r="J3">
-        <v>0.5562458378879521</v>
+        <v>0.0222793836237684</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.46872113201998</v>
+        <v>37.54961933333333</v>
       </c>
       <c r="N3">
-        <v>7.46872113201998</v>
+        <v>112.648858</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3339376673308877</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3339376673308878</v>
       </c>
       <c r="Q3">
-        <v>266.302911621441</v>
+        <v>59.07699132869023</v>
       </c>
       <c r="R3">
-        <v>266.302911621441</v>
+        <v>531.692921958212</v>
       </c>
       <c r="S3">
-        <v>0.5562458378879521</v>
+        <v>0.007439925396891202</v>
       </c>
       <c r="T3">
-        <v>0.5562458378879521</v>
+        <v>0.007439925396891202</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.2362796162455</v>
+        <v>36.796554</v>
       </c>
       <c r="H4">
-        <v>17.2362796162455</v>
+        <v>110.389662</v>
       </c>
       <c r="I4">
-        <v>0.2688937045158989</v>
+        <v>0.5210717033819111</v>
       </c>
       <c r="J4">
-        <v>0.2688937045158989</v>
+        <v>0.521071703381911</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.46872113201998</v>
+        <v>74.89537566666667</v>
       </c>
       <c r="N4">
-        <v>7.46872113201998</v>
+        <v>224.686127</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.6660623326691122</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.6660623326691123</v>
       </c>
       <c r="Q4">
-        <v>128.732965807258</v>
+        <v>2755.891735068786</v>
       </c>
       <c r="R4">
-        <v>128.732965807258</v>
+        <v>24803.02561561907</v>
       </c>
       <c r="S4">
-        <v>0.2688937045158989</v>
+        <v>0.3470662342424234</v>
       </c>
       <c r="T4">
-        <v>0.2688937045158989</v>
+        <v>0.3470662342424234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5580617168668</v>
+        <v>36.796554</v>
       </c>
       <c r="H5">
-        <v>10.5580617168668</v>
+        <v>110.389662</v>
       </c>
       <c r="I5">
-        <v>0.1647105054434138</v>
+        <v>0.5210717033819111</v>
       </c>
       <c r="J5">
-        <v>0.1647105054434138</v>
+        <v>0.521071703381911</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.46872113201998</v>
+        <v>37.54961933333333</v>
       </c>
       <c r="N5">
-        <v>7.46872113201998</v>
+        <v>112.648858</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.3339376673308877</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.3339376673308878</v>
       </c>
       <c r="Q5">
-        <v>78.85521865793422</v>
+        <v>1381.696595478444</v>
       </c>
       <c r="R5">
-        <v>78.85521865793422</v>
+        <v>12435.269359306</v>
       </c>
       <c r="S5">
-        <v>0.1647105054434138</v>
+        <v>0.1740054691394876</v>
       </c>
       <c r="T5">
-        <v>0.1647105054434138</v>
+        <v>0.1740054691394876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>17.68148033333333</v>
+      </c>
+      <c r="H6">
+        <v>53.04444099999999</v>
+      </c>
+      <c r="I6">
+        <v>0.2503853778156443</v>
+      </c>
+      <c r="J6">
+        <v>0.2503853778156443</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>74.89537566666667</v>
+      </c>
+      <c r="N6">
+        <v>224.686127</v>
+      </c>
+      <c r="O6">
+        <v>0.6660623326691122</v>
+      </c>
+      <c r="P6">
+        <v>0.6660623326691123</v>
+      </c>
+      <c r="Q6">
+        <v>1324.261111907778</v>
+      </c>
+      <c r="R6">
+        <v>11918.35000717001</v>
+      </c>
+      <c r="S6">
+        <v>0.166772268814125</v>
+      </c>
+      <c r="T6">
+        <v>0.1667722688141251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.68148033333333</v>
+      </c>
+      <c r="H7">
+        <v>53.04444099999999</v>
+      </c>
+      <c r="I7">
+        <v>0.2503853778156443</v>
+      </c>
+      <c r="J7">
+        <v>0.2503853778156443</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>37.54961933333333</v>
+      </c>
+      <c r="N7">
+        <v>112.648858</v>
+      </c>
+      <c r="O7">
+        <v>0.3339376673308877</v>
+      </c>
+      <c r="P7">
+        <v>0.3339376673308878</v>
+      </c>
+      <c r="Q7">
+        <v>663.9328557664862</v>
+      </c>
+      <c r="R7">
+        <v>5975.395701898377</v>
+      </c>
+      <c r="S7">
+        <v>0.08361310900151928</v>
+      </c>
+      <c r="T7">
+        <v>0.08361310900151929</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>14.56572533333333</v>
+      </c>
+      <c r="H8">
+        <v>43.697176</v>
+      </c>
+      <c r="I8">
+        <v>0.2062635351786761</v>
+      </c>
+      <c r="J8">
+        <v>0.2062635351786761</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>74.89537566666667</v>
+      </c>
+      <c r="N8">
+        <v>224.686127</v>
+      </c>
+      <c r="O8">
+        <v>0.6660623326691122</v>
+      </c>
+      <c r="P8">
+        <v>0.6660623326691123</v>
+      </c>
+      <c r="Q8">
+        <v>1090.905470697483</v>
+      </c>
+      <c r="R8">
+        <v>9818.149236277352</v>
+      </c>
+      <c r="S8">
+        <v>0.1373843713856865</v>
+      </c>
+      <c r="T8">
+        <v>0.1373843713856865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.56572533333333</v>
+      </c>
+      <c r="H9">
+        <v>43.697176</v>
+      </c>
+      <c r="I9">
+        <v>0.2062635351786761</v>
+      </c>
+      <c r="J9">
+        <v>0.2062635351786761</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>37.54961933333333</v>
+      </c>
+      <c r="N9">
+        <v>112.648858</v>
+      </c>
+      <c r="O9">
+        <v>0.3339376673308877</v>
+      </c>
+      <c r="P9">
+        <v>0.3339376673308878</v>
+      </c>
+      <c r="Q9">
+        <v>546.9374415805564</v>
+      </c>
+      <c r="R9">
+        <v>4922.436974225007</v>
+      </c>
+      <c r="S9">
+        <v>0.0688791637929896</v>
+      </c>
+      <c r="T9">
+        <v>0.0688791637929896</v>
       </c>
     </row>
   </sheetData>
